--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ntn1-Unc5a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ntn1-Unc5a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,16 +88,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Ntn1</t>
+  </si>
+  <si>
+    <t>Unc5a</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Ntn1</t>
-  </si>
-  <si>
-    <t>Unc5a</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8475943333333333</v>
+        <v>1.528935333333333</v>
       </c>
       <c r="H2">
-        <v>2.542783</v>
+        <v>4.586806</v>
       </c>
       <c r="I2">
-        <v>0.05593357876111178</v>
+        <v>0.09667748002346326</v>
       </c>
       <c r="J2">
-        <v>0.05593357876111178</v>
+        <v>0.09667748002346324</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4652636666666667</v>
+        <v>0.778827</v>
       </c>
       <c r="N2">
-        <v>1.395791</v>
+        <v>2.336481</v>
       </c>
       <c r="O2">
-        <v>0.03548877547730651</v>
+        <v>0.06315631643850513</v>
       </c>
       <c r="P2">
-        <v>0.03548877547730652</v>
+        <v>0.06315631643850513</v>
       </c>
       <c r="Q2">
-        <v>0.3943548473725556</v>
+        <v>1.190776118854</v>
       </c>
       <c r="R2">
-        <v>3.549193626353</v>
+        <v>10.716985069686</v>
       </c>
       <c r="S2">
-        <v>0.001985014218295336</v>
+        <v>0.006105793520839104</v>
       </c>
       <c r="T2">
-        <v>0.001985014218295337</v>
+        <v>0.006105793520839103</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8475943333333333</v>
+        <v>1.528935333333333</v>
       </c>
       <c r="H3">
-        <v>2.542783</v>
+        <v>4.586806</v>
       </c>
       <c r="I3">
-        <v>0.05593357876111178</v>
+        <v>0.09667748002346326</v>
       </c>
       <c r="J3">
-        <v>0.05593357876111178</v>
+        <v>0.09667748002346324</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>4.249878</v>
       </c>
       <c r="O3">
-        <v>0.1080555514027132</v>
+        <v>0.1148764487248308</v>
       </c>
       <c r="P3">
-        <v>0.1080555514027132</v>
+        <v>0.1148764487248308</v>
       </c>
       <c r="Q3">
-        <v>1.200724170052667</v>
+        <v>2.165929545518666</v>
       </c>
       <c r="R3">
-        <v>10.806517530474</v>
+        <v>19.493365909668</v>
       </c>
       <c r="S3">
-        <v>0.00604393369495902</v>
+        <v>0.01110596557676123</v>
       </c>
       <c r="T3">
-        <v>0.006043933694959022</v>
+        <v>0.01110596557676122</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8475943333333333</v>
+        <v>1.528935333333333</v>
       </c>
       <c r="H4">
-        <v>2.542783</v>
+        <v>4.586806</v>
       </c>
       <c r="I4">
-        <v>0.05593357876111178</v>
+        <v>0.09667748002346326</v>
       </c>
       <c r="J4">
-        <v>0.05593357876111178</v>
+        <v>0.09667748002346324</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.120205333333333</v>
+        <v>1.335772</v>
       </c>
       <c r="N4">
-        <v>3.360616</v>
+        <v>4.007316</v>
       </c>
       <c r="O4">
-        <v>0.08544556218620404</v>
+        <v>0.1083198696523039</v>
       </c>
       <c r="P4">
-        <v>0.08544556218620405</v>
+        <v>0.1083198696523039</v>
       </c>
       <c r="Q4">
-        <v>0.9494796927031113</v>
+        <v>2.042309008077333</v>
       </c>
       <c r="R4">
-        <v>8.545317234328001</v>
+        <v>18.380781072696</v>
       </c>
       <c r="S4">
-        <v>0.004779276082329518</v>
+        <v>0.01047209203445475</v>
       </c>
       <c r="T4">
-        <v>0.004779276082329519</v>
+        <v>0.01047209203445475</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8475943333333333</v>
+        <v>1.528935333333333</v>
       </c>
       <c r="H5">
-        <v>2.542783</v>
+        <v>4.586806</v>
       </c>
       <c r="I5">
-        <v>0.05593357876111178</v>
+        <v>0.09667748002346326</v>
       </c>
       <c r="J5">
-        <v>0.05593357876111178</v>
+        <v>0.09667748002346324</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.954623</v>
+        <v>0.8477706666666668</v>
       </c>
       <c r="N5">
-        <v>5.863868999999999</v>
+        <v>2.543312</v>
       </c>
       <c r="O5">
-        <v>0.1490921852693833</v>
+        <v>0.06874706769447189</v>
       </c>
       <c r="P5">
-        <v>0.1490921852693834</v>
+        <v>0.06874706769447189</v>
       </c>
       <c r="Q5">
-        <v>1.656727378603</v>
+        <v>1.296186526830222</v>
       </c>
       <c r="R5">
-        <v>14.910546407427</v>
+        <v>11.665678741472</v>
       </c>
       <c r="S5">
-        <v>0.008339259487431321</v>
+        <v>0.006646293263703982</v>
       </c>
       <c r="T5">
-        <v>0.008339259487431324</v>
+        <v>0.006646293263703982</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,14 +776,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8475943333333333</v>
+        <v>1.528935333333333</v>
       </c>
       <c r="H6">
-        <v>2.542783</v>
+        <v>4.586806</v>
       </c>
       <c r="I6">
-        <v>0.05593357876111178</v>
+        <v>0.09667748002346326</v>
       </c>
       <c r="J6">
-        <v>0.05593357876111178</v>
+        <v>0.09667748002346324</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.109867</v>
+        <v>6.275473000000001</v>
       </c>
       <c r="N6">
-        <v>21.329601</v>
+        <v>18.826419</v>
       </c>
       <c r="O6">
-        <v>0.5423171670468806</v>
+        <v>0.5088880567690837</v>
       </c>
       <c r="P6">
-        <v>0.5423171670468807</v>
+        <v>0.5088880567690837</v>
       </c>
       <c r="Q6">
-        <v>6.026282979953667</v>
+        <v>9.594792403079335</v>
       </c>
       <c r="R6">
-        <v>54.236546819583</v>
+        <v>86.35313162771401</v>
       </c>
       <c r="S6">
-        <v>0.03033373997651971</v>
+        <v>0.04919801494247212</v>
       </c>
       <c r="T6">
-        <v>0.03033373997651972</v>
+        <v>0.04919801494247211</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8475943333333333</v>
+        <v>1.528935333333333</v>
       </c>
       <c r="H7">
-        <v>2.542783</v>
+        <v>4.586806</v>
       </c>
       <c r="I7">
-        <v>0.05593357876111178</v>
+        <v>0.09667748002346326</v>
       </c>
       <c r="J7">
-        <v>0.05593357876111178</v>
+        <v>0.09667748002346324</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.043579</v>
+        <v>1.677267</v>
       </c>
       <c r="N7">
-        <v>3.130737</v>
+        <v>5.031801</v>
       </c>
       <c r="O7">
-        <v>0.07960075861751234</v>
+        <v>0.1360122407208047</v>
       </c>
       <c r="P7">
-        <v>0.07960075861751235</v>
+        <v>0.1360122407208047</v>
       </c>
       <c r="Q7">
-        <v>0.8845316467856666</v>
+        <v>2.564432779734</v>
       </c>
       <c r="R7">
-        <v>7.960784821071</v>
+        <v>23.079895017606</v>
       </c>
       <c r="S7">
-        <v>0.004452355301576874</v>
+        <v>0.01314932068523207</v>
       </c>
       <c r="T7">
-        <v>0.004452355301576874</v>
+        <v>0.01314932068523207</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>32.140514</v>
       </c>
       <c r="I8">
-        <v>0.7069946476917676</v>
+        <v>0.6774352131262671</v>
       </c>
       <c r="J8">
-        <v>0.7069946476917677</v>
+        <v>0.677435213126267</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4652636666666667</v>
+        <v>0.778827</v>
       </c>
       <c r="N8">
-        <v>1.395791</v>
+        <v>2.336481</v>
       </c>
       <c r="O8">
-        <v>0.03548877547730651</v>
+        <v>0.06315631643850513</v>
       </c>
       <c r="P8">
-        <v>0.03548877547730652</v>
+        <v>0.06315631643850513</v>
       </c>
       <c r="Q8">
-        <v>4.984604464063779</v>
+        <v>8.343966699026</v>
       </c>
       <c r="R8">
-        <v>44.86144017657401</v>
+        <v>75.095700291234</v>
       </c>
       <c r="S8">
-        <v>0.02509037431559056</v>
+        <v>0.04278431268678869</v>
       </c>
       <c r="T8">
-        <v>0.02509037431559057</v>
+        <v>0.04278431268678868</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>32.140514</v>
       </c>
       <c r="I9">
-        <v>0.7069946476917676</v>
+        <v>0.6774352131262671</v>
       </c>
       <c r="J9">
-        <v>0.7069946476917677</v>
+        <v>0.677435213126267</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>4.249878</v>
       </c>
       <c r="O9">
-        <v>0.1080555514027132</v>
+        <v>0.1148764487248308</v>
       </c>
       <c r="P9">
-        <v>0.1080555514027132</v>
+        <v>0.1148764487248308</v>
       </c>
       <c r="Q9">
         <v>15.17702926192133</v>
@@ -1013,10 +1013,10 @@
         <v>136.593263357292</v>
       </c>
       <c r="S9">
-        <v>0.0763946964951009</v>
+        <v>0.07782135152509442</v>
       </c>
       <c r="T9">
-        <v>0.07639469649510092</v>
+        <v>0.07782135152509441</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>32.140514</v>
       </c>
       <c r="I10">
-        <v>0.7069946476917676</v>
+        <v>0.6774352131262671</v>
       </c>
       <c r="J10">
-        <v>0.7069946476917677</v>
+        <v>0.677435213126267</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.120205333333333</v>
+        <v>1.335772</v>
       </c>
       <c r="N10">
-        <v>3.360616</v>
+        <v>4.007316</v>
       </c>
       <c r="O10">
-        <v>0.08544556218620404</v>
+        <v>0.1083198696523039</v>
       </c>
       <c r="P10">
-        <v>0.08544556218620405</v>
+        <v>0.1083198696523039</v>
       </c>
       <c r="Q10">
-        <v>12.00132506629156</v>
+        <v>14.31079955560267</v>
       </c>
       <c r="R10">
-        <v>108.011925596624</v>
+        <v>128.797196000424</v>
       </c>
       <c r="S10">
-        <v>0.06040955513466034</v>
+        <v>0.07337969398371795</v>
       </c>
       <c r="T10">
-        <v>0.06040955513466036</v>
+        <v>0.07337969398371795</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>32.140514</v>
       </c>
       <c r="I11">
-        <v>0.7069946476917676</v>
+        <v>0.6774352131262671</v>
       </c>
       <c r="J11">
-        <v>0.7069946476917677</v>
+        <v>0.677435213126267</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.954623</v>
+        <v>0.8477706666666668</v>
       </c>
       <c r="N11">
-        <v>5.863868999999999</v>
+        <v>2.543312</v>
       </c>
       <c r="O11">
-        <v>0.1490921852693833</v>
+        <v>0.06874706769447189</v>
       </c>
       <c r="P11">
-        <v>0.1490921852693834</v>
+        <v>0.06874706769447189</v>
       </c>
       <c r="Q11">
-        <v>20.940862632074</v>
+        <v>9.082594993596445</v>
       </c>
       <c r="R11">
-        <v>188.467763688666</v>
+        <v>81.743354942368</v>
       </c>
       <c r="S11">
-        <v>0.1054073769981234</v>
+        <v>0.04657168445541048</v>
       </c>
       <c r="T11">
-        <v>0.1054073769981234</v>
+        <v>0.04657168445541047</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>32.140514</v>
       </c>
       <c r="I12">
-        <v>0.7069946476917676</v>
+        <v>0.6774352131262671</v>
       </c>
       <c r="J12">
-        <v>0.7069946476917677</v>
+        <v>0.677435213126267</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.109867</v>
+        <v>6.275473000000001</v>
       </c>
       <c r="N12">
-        <v>21.329601</v>
+        <v>18.826419</v>
       </c>
       <c r="O12">
-        <v>0.5423171670468806</v>
+        <v>0.5088880567690837</v>
       </c>
       <c r="P12">
-        <v>0.5423171670468807</v>
+        <v>0.5088880567690837</v>
       </c>
       <c r="Q12">
-        <v>76.17159328387935</v>
+        <v>67.23230927104066</v>
       </c>
       <c r="R12">
-        <v>685.5443395549141</v>
+        <v>605.090783439366</v>
       </c>
       <c r="S12">
-        <v>0.3834153344535068</v>
+        <v>0.3447386891947761</v>
       </c>
       <c r="T12">
-        <v>0.383415334453507</v>
+        <v>0.344738689194776</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>32.140514</v>
       </c>
       <c r="I13">
-        <v>0.7069946476917676</v>
+        <v>0.6774352131262671</v>
       </c>
       <c r="J13">
-        <v>0.7069946476917677</v>
+        <v>0.677435213126267</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.043579</v>
+        <v>1.677267</v>
       </c>
       <c r="N13">
-        <v>3.130737</v>
+        <v>5.031801</v>
       </c>
       <c r="O13">
-        <v>0.07960075861751234</v>
+        <v>0.1360122407208047</v>
       </c>
       <c r="P13">
-        <v>0.07960075861751235</v>
+        <v>0.1360122407208047</v>
       </c>
       <c r="Q13">
-        <v>11.18038848653533</v>
+        <v>17.969407831746</v>
       </c>
       <c r="R13">
-        <v>100.623496378818</v>
+        <v>161.724670485714</v>
       </c>
       <c r="S13">
-        <v>0.05627731029478557</v>
+        <v>0.09213948128047947</v>
       </c>
       <c r="T13">
-        <v>0.05627731029478559</v>
+        <v>0.09213948128047948</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.06359233333333333</v>
+        <v>0.2135196666666667</v>
       </c>
       <c r="H14">
-        <v>0.190777</v>
+        <v>0.6405590000000001</v>
       </c>
       <c r="I14">
-        <v>0.00419652025175118</v>
+        <v>0.01350125336156567</v>
       </c>
       <c r="J14">
-        <v>0.00419652025175118</v>
+        <v>0.01350125336156567</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.4652636666666667</v>
+        <v>0.778827</v>
       </c>
       <c r="N14">
-        <v>1.395791</v>
+        <v>2.336481</v>
       </c>
       <c r="O14">
-        <v>0.03548877547730651</v>
+        <v>0.06315631643850513</v>
       </c>
       <c r="P14">
-        <v>0.03548877547730652</v>
+        <v>0.06315631643850513</v>
       </c>
       <c r="Q14">
-        <v>0.02958720217855556</v>
+        <v>0.166294881431</v>
       </c>
       <c r="R14">
-        <v>0.266284819607</v>
+        <v>1.496653932879</v>
       </c>
       <c r="S14">
-        <v>0.0001489293650003675</v>
+        <v>0.0008526894296194728</v>
       </c>
       <c r="T14">
-        <v>0.0001489293650003675</v>
+        <v>0.0008526894296194727</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.06359233333333333</v>
+        <v>0.2135196666666667</v>
       </c>
       <c r="H15">
-        <v>0.190777</v>
+        <v>0.6405590000000001</v>
       </c>
       <c r="I15">
-        <v>0.00419652025175118</v>
+        <v>0.01350125336156567</v>
       </c>
       <c r="J15">
-        <v>0.00419652025175118</v>
+        <v>0.01350125336156567</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>4.249878</v>
       </c>
       <c r="O15">
-        <v>0.1080555514027132</v>
+        <v>0.1148764487248308</v>
       </c>
       <c r="P15">
-        <v>0.1080555514027132</v>
+        <v>0.1148764487248308</v>
       </c>
       <c r="Q15">
-        <v>0.09008655280066666</v>
+        <v>0.3024775113113334</v>
       </c>
       <c r="R15">
-        <v>0.810778975206</v>
+        <v>2.722297601802</v>
       </c>
       <c r="S15">
-        <v>0.0004534573097756266</v>
+        <v>0.001550976039510848</v>
       </c>
       <c r="T15">
-        <v>0.0004534573097756266</v>
+        <v>0.001550976039510848</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.06359233333333333</v>
+        <v>0.2135196666666667</v>
       </c>
       <c r="H16">
-        <v>0.190777</v>
+        <v>0.6405590000000001</v>
       </c>
       <c r="I16">
-        <v>0.00419652025175118</v>
+        <v>0.01350125336156567</v>
       </c>
       <c r="J16">
-        <v>0.00419652025175118</v>
+        <v>0.01350125336156567</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.120205333333333</v>
+        <v>1.335772</v>
       </c>
       <c r="N16">
-        <v>3.360616</v>
+        <v>4.007316</v>
       </c>
       <c r="O16">
-        <v>0.08544556218620404</v>
+        <v>0.1083198696523039</v>
       </c>
       <c r="P16">
-        <v>0.08544556218620405</v>
+        <v>0.1083198696523039</v>
       </c>
       <c r="Q16">
-        <v>0.07123647095911112</v>
+        <v>0.2852135921826667</v>
       </c>
       <c r="R16">
-        <v>0.6411282386320001</v>
+        <v>2.566922329644</v>
       </c>
       <c r="S16">
-        <v>0.0003585740321366701</v>
+        <v>0.001462454004267524</v>
       </c>
       <c r="T16">
-        <v>0.0003585740321366702</v>
+        <v>0.001462454004267523</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.06359233333333333</v>
+        <v>0.2135196666666667</v>
       </c>
       <c r="H17">
-        <v>0.190777</v>
+        <v>0.6405590000000001</v>
       </c>
       <c r="I17">
-        <v>0.00419652025175118</v>
+        <v>0.01350125336156567</v>
       </c>
       <c r="J17">
-        <v>0.00419652025175118</v>
+        <v>0.01350125336156567</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.954623</v>
+        <v>0.8477706666666668</v>
       </c>
       <c r="N17">
-        <v>5.863868999999999</v>
+        <v>2.543312</v>
       </c>
       <c r="O17">
-        <v>0.1490921852693833</v>
+        <v>0.06874706769447189</v>
       </c>
       <c r="P17">
-        <v>0.1490921852693834</v>
+        <v>0.06874706769447189</v>
       </c>
       <c r="Q17">
-        <v>0.124299037357</v>
+        <v>0.1810157101564445</v>
       </c>
       <c r="R17">
-        <v>1.118691336213</v>
+        <v>1.629141391408</v>
       </c>
       <c r="S17">
-        <v>0.0006256683748608061</v>
+        <v>0.0009281715788077717</v>
       </c>
       <c r="T17">
-        <v>0.0006256683748608063</v>
+        <v>0.0009281715788077714</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>27</v>
       </c>
-      <c r="D18" t="s">
-        <v>24</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.06359233333333333</v>
+        <v>0.2135196666666667</v>
       </c>
       <c r="H18">
-        <v>0.190777</v>
+        <v>0.6405590000000001</v>
       </c>
       <c r="I18">
-        <v>0.00419652025175118</v>
+        <v>0.01350125336156567</v>
       </c>
       <c r="J18">
-        <v>0.00419652025175118</v>
+        <v>0.01350125336156567</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.109867</v>
+        <v>6.275473000000001</v>
       </c>
       <c r="N18">
-        <v>21.329601</v>
+        <v>18.826419</v>
       </c>
       <c r="O18">
-        <v>0.5423171670468806</v>
+        <v>0.5088880567690837</v>
       </c>
       <c r="P18">
-        <v>0.5423171670468807</v>
+        <v>0.5088880567690837</v>
       </c>
       <c r="Q18">
-        <v>0.4521330322196667</v>
+        <v>1.339936903135667</v>
       </c>
       <c r="R18">
-        <v>4.069197289977</v>
+        <v>12.059432128221</v>
       </c>
       <c r="S18">
-        <v>0.002275844974384562</v>
+        <v>0.006870626587114214</v>
       </c>
       <c r="T18">
-        <v>0.002275844974384563</v>
+        <v>0.006870626587114213</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.06359233333333333</v>
+        <v>0.2135196666666667</v>
       </c>
       <c r="H19">
-        <v>0.190777</v>
+        <v>0.6405590000000001</v>
       </c>
       <c r="I19">
-        <v>0.00419652025175118</v>
+        <v>0.01350125336156567</v>
       </c>
       <c r="J19">
-        <v>0.00419652025175118</v>
+        <v>0.01350125336156567</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.043579</v>
+        <v>1.677267</v>
       </c>
       <c r="N19">
-        <v>3.130737</v>
+        <v>5.031801</v>
       </c>
       <c r="O19">
-        <v>0.07960075861751234</v>
+        <v>0.1360122407208047</v>
       </c>
       <c r="P19">
-        <v>0.07960075861751235</v>
+        <v>0.1360122407208047</v>
       </c>
       <c r="Q19">
-        <v>0.06636362362766667</v>
+        <v>0.358129490751</v>
       </c>
       <c r="R19">
-        <v>0.597272612649</v>
+        <v>3.223165416759</v>
       </c>
       <c r="S19">
-        <v>0.0003340461955931478</v>
+        <v>0.001836335722245844</v>
       </c>
       <c r="T19">
-        <v>0.0003340461955931479</v>
+        <v>0.001836335722245844</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.417961</v>
+        <v>2.830364666666667</v>
       </c>
       <c r="H20">
-        <v>10.253883</v>
+        <v>8.491094</v>
       </c>
       <c r="I20">
-        <v>0.2255545881767044</v>
+        <v>0.1789693243102823</v>
       </c>
       <c r="J20">
-        <v>0.2255545881767044</v>
+        <v>0.1789693243102823</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.4652636666666667</v>
+        <v>0.778827</v>
       </c>
       <c r="N20">
-        <v>1.395791</v>
+        <v>2.336481</v>
       </c>
       <c r="O20">
-        <v>0.03548877547730651</v>
+        <v>0.06315631643850513</v>
       </c>
       <c r="P20">
-        <v>0.03548877547730652</v>
+        <v>0.06315631643850513</v>
       </c>
       <c r="Q20">
-        <v>1.590253067383667</v>
+        <v>2.204364422246</v>
       </c>
       <c r="R20">
-        <v>14.312277606453</v>
+        <v>19.839279800214</v>
       </c>
       <c r="S20">
-        <v>0.008004656137679398</v>
+        <v>0.01130304327892564</v>
       </c>
       <c r="T20">
-        <v>0.0080046561376794</v>
+        <v>0.01130304327892564</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.417961</v>
+        <v>2.830364666666667</v>
       </c>
       <c r="H21">
-        <v>10.253883</v>
+        <v>8.491094</v>
       </c>
       <c r="I21">
-        <v>0.2255545881767044</v>
+        <v>0.1789693243102823</v>
       </c>
       <c r="J21">
-        <v>0.2255545881767044</v>
+        <v>0.1789693243102823</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>4.249878</v>
       </c>
       <c r="O21">
-        <v>0.1080555514027132</v>
+        <v>0.1148764487248308</v>
       </c>
       <c r="P21">
-        <v>0.1080555514027132</v>
+        <v>0.1148764487248308</v>
       </c>
       <c r="Q21">
-        <v>4.841972419585999</v>
+        <v>4.009568176281333</v>
       </c>
       <c r="R21">
-        <v>43.57775177627399</v>
+        <v>36.086113586532</v>
       </c>
       <c r="S21">
-        <v>0.02437242539684569</v>
+        <v>0.02055936040744775</v>
       </c>
       <c r="T21">
-        <v>0.02437242539684569</v>
+        <v>0.02055936040744775</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.417961</v>
+        <v>2.830364666666667</v>
       </c>
       <c r="H22">
-        <v>10.253883</v>
+        <v>8.491094</v>
       </c>
       <c r="I22">
-        <v>0.2255545881767044</v>
+        <v>0.1789693243102823</v>
       </c>
       <c r="J22">
-        <v>0.2255545881767044</v>
+        <v>0.1789693243102823</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.120205333333333</v>
+        <v>1.335772</v>
       </c>
       <c r="N22">
-        <v>3.360616</v>
+        <v>4.007316</v>
       </c>
       <c r="O22">
-        <v>0.08544556218620404</v>
+        <v>0.1083198696523039</v>
       </c>
       <c r="P22">
-        <v>0.08544556218620405</v>
+        <v>0.1083198696523039</v>
       </c>
       <c r="Q22">
-        <v>3.828818141325333</v>
+        <v>3.780721871522667</v>
       </c>
       <c r="R22">
-        <v>34.459363271928</v>
+        <v>34.026496843704</v>
       </c>
       <c r="S22">
-        <v>0.01927263859043624</v>
+        <v>0.01938593388105068</v>
       </c>
       <c r="T22">
-        <v>0.01927263859043624</v>
+        <v>0.01938593388105068</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.417961</v>
+        <v>2.830364666666667</v>
       </c>
       <c r="H23">
-        <v>10.253883</v>
+        <v>8.491094</v>
       </c>
       <c r="I23">
-        <v>0.2255545881767044</v>
+        <v>0.1789693243102823</v>
       </c>
       <c r="J23">
-        <v>0.2255545881767044</v>
+        <v>0.1789693243102823</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.954623</v>
+        <v>0.8477706666666668</v>
       </c>
       <c r="N23">
-        <v>5.863868999999999</v>
+        <v>2.543312</v>
       </c>
       <c r="O23">
-        <v>0.1490921852693833</v>
+        <v>0.06874706769447189</v>
       </c>
       <c r="P23">
-        <v>0.1490921852693834</v>
+        <v>0.06874706769447189</v>
       </c>
       <c r="Q23">
-        <v>6.680825183702998</v>
+        <v>2.399500140369778</v>
       </c>
       <c r="R23">
-        <v>60.12742665332699</v>
+        <v>21.595501263328</v>
       </c>
       <c r="S23">
-        <v>0.03362842644880068</v>
+        <v>0.01230361625359287</v>
       </c>
       <c r="T23">
-        <v>0.03362842644880068</v>
+        <v>0.01230361625359287</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,14 +1892,14 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>27</v>
       </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
       <c r="E24">
         <v>3</v>
       </c>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.417961</v>
+        <v>2.830364666666667</v>
       </c>
       <c r="H24">
-        <v>10.253883</v>
+        <v>8.491094</v>
       </c>
       <c r="I24">
-        <v>0.2255545881767044</v>
+        <v>0.1789693243102823</v>
       </c>
       <c r="J24">
-        <v>0.2255545881767044</v>
+        <v>0.1789693243102823</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.109867</v>
+        <v>6.275473000000001</v>
       </c>
       <c r="N24">
-        <v>21.329601</v>
+        <v>18.826419</v>
       </c>
       <c r="O24">
-        <v>0.5423171670468806</v>
+        <v>0.5088880567690837</v>
       </c>
       <c r="P24">
-        <v>0.5423171670468807</v>
+        <v>0.5088880567690837</v>
       </c>
       <c r="Q24">
-        <v>24.301248121187</v>
+        <v>17.76187704582067</v>
       </c>
       <c r="R24">
-        <v>218.711233090683</v>
+        <v>159.856893412386</v>
       </c>
       <c r="S24">
-        <v>0.1223221252744162</v>
+        <v>0.0910753516695355</v>
       </c>
       <c r="T24">
-        <v>0.1223221252744162</v>
+        <v>0.09107535166953548</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,13 +1954,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.417961</v>
+        <v>2.830364666666667</v>
       </c>
       <c r="H25">
-        <v>10.253883</v>
+        <v>8.491094</v>
       </c>
       <c r="I25">
-        <v>0.2255545881767044</v>
+        <v>0.1789693243102823</v>
       </c>
       <c r="J25">
-        <v>0.2255545881767044</v>
+        <v>0.1789693243102823</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.043579</v>
+        <v>1.677267</v>
       </c>
       <c r="N25">
-        <v>3.130737</v>
+        <v>5.031801</v>
       </c>
       <c r="O25">
-        <v>0.07960075861751234</v>
+        <v>0.1360122407208047</v>
       </c>
       <c r="P25">
-        <v>0.07960075861751235</v>
+        <v>0.1360122407208047</v>
       </c>
       <c r="Q25">
-        <v>3.566912322419</v>
+        <v>4.747277253366</v>
       </c>
       <c r="R25">
-        <v>32.102210901771</v>
+        <v>42.725495280294</v>
       </c>
       <c r="S25">
-        <v>0.01795431632852625</v>
+        <v>0.02434201881972988</v>
       </c>
       <c r="T25">
-        <v>0.01795431632852626</v>
+        <v>0.02434201881972988</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.06890399999999999</v>
+        <v>0.528479</v>
       </c>
       <c r="H26">
-        <v>0.206712</v>
+        <v>1.585437</v>
       </c>
       <c r="I26">
-        <v>0.004547042328372864</v>
+        <v>0.03341672917842166</v>
       </c>
       <c r="J26">
-        <v>0.004547042328372865</v>
+        <v>0.03341672917842165</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.4652636666666667</v>
+        <v>0.778827</v>
       </c>
       <c r="N26">
-        <v>1.395791</v>
+        <v>2.336481</v>
       </c>
       <c r="O26">
-        <v>0.03548877547730651</v>
+        <v>0.06315631643850513</v>
       </c>
       <c r="P26">
-        <v>0.03548877547730652</v>
+        <v>0.06315631643850513</v>
       </c>
       <c r="Q26">
-        <v>0.032058527688</v>
+        <v>0.4115937141330001</v>
       </c>
       <c r="R26">
-        <v>0.288526749192</v>
+        <v>3.704343427197001</v>
       </c>
       <c r="S26">
-        <v>0.0001613689642774336</v>
+        <v>0.002110477522332226</v>
       </c>
       <c r="T26">
-        <v>0.0001613689642774337</v>
+        <v>0.002110477522332225</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0.06890399999999999</v>
+        <v>0.528479</v>
       </c>
       <c r="H27">
-        <v>0.206712</v>
+        <v>1.585437</v>
       </c>
       <c r="I27">
-        <v>0.004547042328372864</v>
+        <v>0.03341672917842166</v>
       </c>
       <c r="J27">
-        <v>0.004547042328372865</v>
+        <v>0.03341672917842165</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>4.249878</v>
       </c>
       <c r="O27">
-        <v>0.1080555514027132</v>
+        <v>0.1148764487248308</v>
       </c>
       <c r="P27">
-        <v>0.1080555514027132</v>
+        <v>0.1148764487248308</v>
       </c>
       <c r="Q27">
-        <v>0.09761119790399998</v>
+        <v>0.748657091854</v>
       </c>
       <c r="R27">
-        <v>0.8785007811359998</v>
+        <v>6.737913826686</v>
       </c>
       <c r="S27">
-        <v>0.0004913331660438067</v>
+        <v>0.003838795176016512</v>
       </c>
       <c r="T27">
-        <v>0.0004913331660438069</v>
+        <v>0.003838795176016511</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0.06890399999999999</v>
+        <v>0.528479</v>
       </c>
       <c r="H28">
-        <v>0.206712</v>
+        <v>1.585437</v>
       </c>
       <c r="I28">
-        <v>0.004547042328372864</v>
+        <v>0.03341672917842166</v>
       </c>
       <c r="J28">
-        <v>0.004547042328372865</v>
+        <v>0.03341672917842165</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1.120205333333333</v>
+        <v>1.335772</v>
       </c>
       <c r="N28">
-        <v>3.360616</v>
+        <v>4.007316</v>
       </c>
       <c r="O28">
-        <v>0.08544556218620404</v>
+        <v>0.1083198696523039</v>
       </c>
       <c r="P28">
-        <v>0.08544556218620405</v>
+        <v>0.1083198696523039</v>
       </c>
       <c r="Q28">
-        <v>0.07718662828800001</v>
+        <v>0.7059274507880001</v>
       </c>
       <c r="R28">
-        <v>0.694679654592</v>
+        <v>6.353347057092002</v>
       </c>
       <c r="S28">
-        <v>0.0003885245880322856</v>
+        <v>0.003619695748812974</v>
       </c>
       <c r="T28">
-        <v>0.0003885245880322857</v>
+        <v>0.003619695748812973</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0.06890399999999999</v>
+        <v>0.528479</v>
       </c>
       <c r="H29">
-        <v>0.206712</v>
+        <v>1.585437</v>
       </c>
       <c r="I29">
-        <v>0.004547042328372864</v>
+        <v>0.03341672917842166</v>
       </c>
       <c r="J29">
-        <v>0.004547042328372865</v>
+        <v>0.03341672917842165</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.954623</v>
+        <v>0.8477706666666668</v>
       </c>
       <c r="N29">
-        <v>5.863868999999999</v>
+        <v>2.543312</v>
       </c>
       <c r="O29">
-        <v>0.1490921852693833</v>
+        <v>0.06874706769447189</v>
       </c>
       <c r="P29">
-        <v>0.1490921852693834</v>
+        <v>0.06874706769447189</v>
       </c>
       <c r="Q29">
-        <v>0.134681343192</v>
+        <v>0.4480289941493334</v>
       </c>
       <c r="R29">
-        <v>1.212132088728</v>
+        <v>4.032260947344001</v>
       </c>
       <c r="S29">
-        <v>0.0006779284772494952</v>
+        <v>0.002297302142956788</v>
       </c>
       <c r="T29">
-        <v>0.0006779284772494955</v>
+        <v>0.002297302142956787</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>27</v>
       </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0.06890399999999999</v>
+        <v>0.528479</v>
       </c>
       <c r="H30">
-        <v>0.206712</v>
+        <v>1.585437</v>
       </c>
       <c r="I30">
-        <v>0.004547042328372864</v>
+        <v>0.03341672917842166</v>
       </c>
       <c r="J30">
-        <v>0.004547042328372865</v>
+        <v>0.03341672917842165</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>7.109867</v>
+        <v>6.275473000000001</v>
       </c>
       <c r="N30">
-        <v>21.329601</v>
+        <v>18.826419</v>
       </c>
       <c r="O30">
-        <v>0.5423171670468806</v>
+        <v>0.5088880567690837</v>
       </c>
       <c r="P30">
-        <v>0.5423171670468807</v>
+        <v>0.5088880567690837</v>
       </c>
       <c r="Q30">
-        <v>0.489898275768</v>
+        <v>3.316455695567001</v>
       </c>
       <c r="R30">
-        <v>4.409084481911999</v>
+        <v>29.84810126010301</v>
       </c>
       <c r="S30">
-        <v>0.002465939113965423</v>
+        <v>0.01700537437518574</v>
       </c>
       <c r="T30">
-        <v>0.002465939113965424</v>
+        <v>0.01700537437518573</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,31 +2326,31 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>0.06890399999999999</v>
+        <v>0.528479</v>
       </c>
       <c r="H31">
-        <v>0.206712</v>
+        <v>1.585437</v>
       </c>
       <c r="I31">
-        <v>0.004547042328372864</v>
+        <v>0.03341672917842166</v>
       </c>
       <c r="J31">
-        <v>0.004547042328372865</v>
+        <v>0.03341672917842165</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.043579</v>
+        <v>1.677267</v>
       </c>
       <c r="N31">
-        <v>3.130737</v>
+        <v>5.031801</v>
       </c>
       <c r="O31">
-        <v>0.07960075861751234</v>
+        <v>0.1360122407208047</v>
       </c>
       <c r="P31">
-        <v>0.07960075861751235</v>
+        <v>0.1360122407208047</v>
       </c>
       <c r="Q31">
-        <v>0.07190676741599999</v>
+        <v>0.8864003868929999</v>
       </c>
       <c r="R31">
-        <v>0.647160906744</v>
+        <v>7.977603482037001</v>
       </c>
       <c r="S31">
-        <v>0.0003619480188044196</v>
+        <v>0.004545084213117425</v>
       </c>
       <c r="T31">
-        <v>0.0003619480188044197</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G32">
-        <v>0.04203033333333334</v>
-      </c>
-      <c r="H32">
-        <v>0.126091</v>
-      </c>
-      <c r="I32">
-        <v>0.002773622790292111</v>
-      </c>
-      <c r="J32">
-        <v>0.002773622790292112</v>
-      </c>
-      <c r="K32">
-        <v>3</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>0.4652636666666667</v>
-      </c>
-      <c r="N32">
-        <v>1.395791</v>
-      </c>
-      <c r="O32">
-        <v>0.03548877547730651</v>
-      </c>
-      <c r="P32">
-        <v>0.03548877547730652</v>
-      </c>
-      <c r="Q32">
-        <v>0.01955518699788889</v>
-      </c>
-      <c r="R32">
-        <v>0.175996682981</v>
-      </c>
-      <c r="S32">
-        <v>9.843247646341714E-05</v>
-      </c>
-      <c r="T32">
-        <v>9.843247646341718E-05</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G33">
-        <v>0.04203033333333334</v>
-      </c>
-      <c r="H33">
-        <v>0.126091</v>
-      </c>
-      <c r="I33">
-        <v>0.002773622790292111</v>
-      </c>
-      <c r="J33">
-        <v>0.002773622790292112</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>1.416626</v>
-      </c>
-      <c r="N33">
-        <v>4.249878</v>
-      </c>
-      <c r="O33">
-        <v>0.1080555514027132</v>
-      </c>
-      <c r="P33">
-        <v>0.1080555514027132</v>
-      </c>
-      <c r="Q33">
-        <v>0.05954126298866667</v>
-      </c>
-      <c r="R33">
-        <v>0.535871366898</v>
-      </c>
-      <c r="S33">
-        <v>0.000299705339988146</v>
-      </c>
-      <c r="T33">
-        <v>0.0002997053399881461</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G34">
-        <v>0.04203033333333334</v>
-      </c>
-      <c r="H34">
-        <v>0.126091</v>
-      </c>
-      <c r="I34">
-        <v>0.002773622790292111</v>
-      </c>
-      <c r="J34">
-        <v>0.002773622790292112</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>1.120205333333333</v>
-      </c>
-      <c r="N34">
-        <v>3.360616</v>
-      </c>
-      <c r="O34">
-        <v>0.08544556218620404</v>
-      </c>
-      <c r="P34">
-        <v>0.08544556218620405</v>
-      </c>
-      <c r="Q34">
-        <v>0.04708260356177778</v>
-      </c>
-      <c r="R34">
-        <v>0.4237434320560001</v>
-      </c>
-      <c r="S34">
-        <v>0.0002369937586089774</v>
-      </c>
-      <c r="T34">
-        <v>0.0002369937586089774</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G35">
-        <v>0.04203033333333334</v>
-      </c>
-      <c r="H35">
-        <v>0.126091</v>
-      </c>
-      <c r="I35">
-        <v>0.002773622790292111</v>
-      </c>
-      <c r="J35">
-        <v>0.002773622790292112</v>
-      </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>1.954623</v>
-      </c>
-      <c r="N35">
-        <v>5.863868999999999</v>
-      </c>
-      <c r="O35">
-        <v>0.1490921852693833</v>
-      </c>
-      <c r="P35">
-        <v>0.1490921852693834</v>
-      </c>
-      <c r="Q35">
-        <v>0.082153456231</v>
-      </c>
-      <c r="R35">
-        <v>0.739381106079</v>
-      </c>
-      <c r="S35">
-        <v>0.0004135254829176154</v>
-      </c>
-      <c r="T35">
-        <v>0.0004135254829176155</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G36">
-        <v>0.04203033333333334</v>
-      </c>
-      <c r="H36">
-        <v>0.126091</v>
-      </c>
-      <c r="I36">
-        <v>0.002773622790292111</v>
-      </c>
-      <c r="J36">
-        <v>0.002773622790292112</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>7.109867</v>
-      </c>
-      <c r="N36">
-        <v>21.329601</v>
-      </c>
-      <c r="O36">
-        <v>0.5423171670468806</v>
-      </c>
-      <c r="P36">
-        <v>0.5423171670468807</v>
-      </c>
-      <c r="Q36">
-        <v>0.2988300799656667</v>
-      </c>
-      <c r="R36">
-        <v>2.689470719691</v>
-      </c>
-      <c r="S36">
-        <v>0.001504183254087882</v>
-      </c>
-      <c r="T36">
-        <v>0.001504183254087883</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G37">
-        <v>0.04203033333333334</v>
-      </c>
-      <c r="H37">
-        <v>0.126091</v>
-      </c>
-      <c r="I37">
-        <v>0.002773622790292111</v>
-      </c>
-      <c r="J37">
-        <v>0.002773622790292112</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>1.043579</v>
-      </c>
-      <c r="N37">
-        <v>3.130737</v>
-      </c>
-      <c r="O37">
-        <v>0.07960075861751234</v>
-      </c>
-      <c r="P37">
-        <v>0.07960075861751235</v>
-      </c>
-      <c r="Q37">
-        <v>0.04386197322966667</v>
-      </c>
-      <c r="R37">
-        <v>0.394757759067</v>
-      </c>
-      <c r="S37">
-        <v>0.0002207824782260734</v>
-      </c>
-      <c r="T37">
-        <v>0.0002207824782260735</v>
+        <v>0.004545084213117425</v>
       </c>
     </row>
   </sheetData>
